--- a/appweb_trpr02_grille.xlsx
+++ b/appweb_trpr02_grille.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0212c120946023de/cours/appweb/02 Évaluations/trpr02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsa\Desktop\School\Session-4.2\Développement-dapplication-web\Tp\TP2\AppWebTp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="423" documentId="13_ncr:1_{9ADB3289-3724-407B-9E87-4B2196B83312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{796F8191-AB12-46E0-8F24-ED9C94D66551}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFDD7C0-F879-4258-8B64-D9BCA4B3B838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grille_evaluation" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Éléments observables</t>
   </si>
@@ -971,6 +971,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,22 +989,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Satisfaisant" xfId="2" builtinId="26"/>
-    <cellStyle name="Titre 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1085,35 +1114,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1434,7 +1434,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_grille" displayName="tbl_grille" ref="A1:E33" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" headerRowCellStyle="Titre 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_grille" displayName="tbl_grille" ref="A1:E33" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <autoFilter ref="A1:E33" xr:uid="{21531910-BD78-4443-9EAB-35411D648924}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Critères d'évaluation" dataDxfId="20"/>
@@ -1472,29 +1472,29 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EB0122B-182D-4B3F-AF35-9FF1BAE5F864}" name="tbl_echelle13" displayName="tbl_echelle13" ref="A11:B17" totalsRowShown="0" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8EB0122B-182D-4B3F-AF35-9FF1BAE5F864}" name="tbl_echelle13" displayName="tbl_echelle13" ref="A11:B17" totalsRowShown="0" tableBorderDxfId="9">
   <autoFilter ref="A11:B17" xr:uid="{8EB0122B-182D-4B3F-AF35-9FF1BAE5F864}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{768440EF-BCA6-488B-A368-EE5F9EA54BD9}" name="Description de l'échelle descriptive" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{516767D4-27CC-4460-86BE-9264432807BD}" name="Note" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{768440EF-BCA6-488B-A368-EE5F9EA54BD9}" name="Description de l'échelle descriptive" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{516767D4-27CC-4460-86BE-9264432807BD}" name="Note" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B0622885-BDE0-48E7-8E7D-19E4A25897EB}" name="tbl_echelle25" displayName="tbl_echelle25" ref="A19:B21" totalsRowShown="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B0622885-BDE0-48E7-8E7D-19E4A25897EB}" name="tbl_echelle25" displayName="tbl_echelle25" ref="A19:B21" totalsRowShown="0" tableBorderDxfId="6">
   <autoFilter ref="A19:B21" xr:uid="{B0622885-BDE0-48E7-8E7D-19E4A25897EB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{548959A3-C06A-4D56-BA66-3838E3B20CA8}" name="Description de l'échelle descriptive" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{1A5B4CF7-3565-450C-B3CF-0AECC5B56055}" name="Note" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{548959A3-C06A-4D56-BA66-3838E3B20CA8}" name="Description de l'échelle descriptive" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1A5B4CF7-3565-450C-B3CF-0AECC5B56055}" name="Note" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tbl_etudiants" displayName="tbl_etudiants" ref="A1:A26" totalsRowShown="0" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tbl_etudiants" displayName="tbl_etudiants" ref="A1:A26" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="A1:A26" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Nom de l'étudiant"/>
@@ -1504,11 +1504,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tbl_definitions" displayName="tbl_definitions" ref="A1:B6" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tbl_definitions" displayName="tbl_definitions" ref="A1:B6" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Temes" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Définitions" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Temes" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Définitions" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1780,11 +1780,11 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.296875" style="2" customWidth="1"/>
     <col min="2" max="2" width="66.296875" style="2" customWidth="1"/>
@@ -1818,10 +1818,12 @@
       <c r="B2" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="51" t="e">
+      <c r="C2" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="51">
         <f>VLOOKUP(C2,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E2" s="35"/>
     </row>
@@ -1830,10 +1832,12 @@
       <c r="B3" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="51" t="e">
+      <c r="C3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="51">
         <f>VLOOKUP(C3,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E3" s="44"/>
     </row>
@@ -1842,10 +1846,12 @@
       <c r="B4" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="51" t="e">
+      <c r="C4" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="51">
         <f>VLOOKUP(C4,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E4" s="44"/>
     </row>
@@ -1854,10 +1860,12 @@
       <c r="B5" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="51" t="e">
+      <c r="C5" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="51">
         <f>VLOOKUP(C5,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E5" s="44"/>
     </row>
@@ -1866,10 +1874,12 @@
       <c r="B6" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="51" t="e">
+      <c r="C6" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="51">
         <f>VLOOKUP(C6,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E6" s="44"/>
     </row>
@@ -1878,10 +1888,12 @@
       <c r="B7" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="51" t="e">
+      <c r="C7" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="51">
         <f>VLOOKUP(C7,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E7" s="44"/>
     </row>
@@ -1890,82 +1902,96 @@
       <c r="B8" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="51" t="e">
+      <c r="C8" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="51">
         <f>VLOOKUP(C8,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="51" t="e">
+      <c r="C9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="51">
         <f>VLOOKUP(C9,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E9" s="44"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="51" t="e">
+      <c r="C10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="51">
         <f>VLOOKUP(C10,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E10" s="44"/>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="51" t="e">
+      <c r="C11" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="51">
         <f>VLOOKUP(C11,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E11" s="44"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="51" t="e">
+      <c r="C12" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="51">
         <f>VLOOKUP(C12,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="51" t="e">
+      <c r="C13" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="51">
         <f>VLOOKUP(C13,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="51" t="e">
+      <c r="C14" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="51">
         <f>VLOOKUP(C14,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E14" s="44"/>
     </row>
@@ -1974,10 +2000,12 @@
       <c r="B15" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="51" t="e">
+      <c r="C15" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="51">
         <f>VLOOKUP(C15,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E15" s="44"/>
     </row>
@@ -1988,10 +2016,12 @@
       <c r="B16" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="51" t="e">
+      <c r="C16" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="51">
         <f>VLOOKUP(C16,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E16" s="35"/>
     </row>
@@ -2000,10 +2030,12 @@
       <c r="B17" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="51" t="e">
+      <c r="C17" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="51">
         <f>VLOOKUP(C17,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E17" s="23"/>
     </row>
@@ -2012,10 +2044,12 @@
       <c r="B18" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="51" t="e">
+      <c r="C18" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="51">
         <f>VLOOKUP(C18,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E18" s="23"/>
     </row>
@@ -2024,10 +2058,12 @@
       <c r="B19" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="51" t="e">
+      <c r="C19" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="51">
         <f>VLOOKUP(C19,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E19" s="44"/>
     </row>
@@ -2036,10 +2072,12 @@
       <c r="B20" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="51" t="e">
+      <c r="C20" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="51">
         <f>VLOOKUP(C20,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E20" s="44"/>
     </row>
@@ -2048,10 +2086,12 @@
       <c r="B21" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="51" t="e">
+      <c r="C21" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="51">
         <f>VLOOKUP(C21,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E21" s="44"/>
     </row>
@@ -2060,82 +2100,96 @@
       <c r="B22" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="51" t="e">
+      <c r="C22" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="51">
         <f>VLOOKUP(C22,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="68"/>
-      <c r="B23" s="69" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="51" t="e">
+      <c r="C23" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="51">
         <f>VLOOKUP(C23,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E23" s="44"/>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="51" t="e">
+      <c r="C24" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="51">
         <f>VLOOKUP(C24,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="68"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="51" t="e">
+      <c r="C25" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="51">
         <f>VLOOKUP(C25,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="68"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="51" t="e">
+      <c r="C26" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="51">
         <f>VLOOKUP(C26,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="68"/>
-      <c r="B27" s="69" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="51" t="e">
+      <c r="C27" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="51">
         <f>VLOOKUP(C27,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="68"/>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="51" t="e">
+      <c r="C28" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="51">
         <f>VLOOKUP(C28,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E28" s="44"/>
     </row>
@@ -2144,10 +2198,12 @@
       <c r="B29" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="51" t="e">
+      <c r="C29" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="51">
         <f>VLOOKUP(C29,echelles!$A$2:$B$5,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
       <c r="E29" s="23"/>
     </row>
@@ -2158,10 +2214,12 @@
       <c r="B30" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="51" t="e">
+      <c r="C30" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="51">
         <f>VLOOKUP(C30,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="E30" s="59"/>
     </row>
@@ -2170,10 +2228,12 @@
       <c r="B31" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="70" t="e">
+      <c r="C31" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="67">
         <f>VLOOKUP(C31,echelles!$A$12:$B$17,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="E31" s="49"/>
     </row>
@@ -2184,10 +2244,12 @@
       <c r="B32" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="34" t="e">
+      <c r="C32" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="34">
         <f>VLOOKUP(C32,echelles!$A$8:$B$9,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="E32" s="60"/>
     </row>
@@ -2212,7 +2274,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>14</v>
@@ -2237,7 +2299,7 @@
       <c r="D35" s="36">
         <v>0.9</v>
       </c>
-      <c r="E35" s="65"/>
+      <c r="E35" s="68"/>
     </row>
     <row r="36" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
@@ -2252,7 +2314,7 @@
       <c r="D36" s="37">
         <v>0.6</v>
       </c>
-      <c r="E36" s="66"/>
+      <c r="E36" s="69"/>
     </row>
     <row r="37" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
@@ -2264,11 +2326,11 @@
       <c r="C37" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="43" t="e">
+      <c r="D37" s="43">
         <f>SUM(D2:D33)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E37" s="66"/>
+        <v>105</v>
+      </c>
+      <c r="E37" s="69"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
@@ -2283,7 +2345,7 @@
       <c r="D38" s="18">
         <v>0</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="69"/>
     </row>
     <row r="39" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
@@ -2291,7 +2353,7 @@
       </c>
       <c r="B39" s="12">
         <f ca="1">NOW()</f>
-        <v>44650.743428009257</v>
+        <v>44673.442847222221</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>11</v>
@@ -2299,26 +2361,26 @@
       <c r="D39" s="19">
         <v>0</v>
       </c>
-      <c r="E39" s="67"/>
+      <c r="E39" s="70"/>
     </row>
     <row r="40" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="13" t="e">
+      <c r="B40" s="13">
         <f>(pts_grandtotal/nb_points)</f>
-        <v>#N/A</v>
+        <v>1.05</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="4" t="e">
+      <c r="D40" s="4">
         <f>pts_soustotal-pts_retard-pts_francais</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E40" s="28" t="e">
+        <v>105</v>
+      </c>
+      <c r="E40" s="28" t="str">
         <f>"Note finale: "&amp;pts_grandtotal/nb_points*100&amp;"%"</f>
-        <v>#N/A</v>
+        <v>Note finale: 105%</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,7 +2507,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.09765625" customWidth="1"/>
     <col min="2" max="2" width="10.69921875" customWidth="1"/>
@@ -2615,7 +2677,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
   </cols>
@@ -2767,7 +2829,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.19921875" style="30" customWidth="1"/>
     <col min="2" max="2" width="140.69921875" style="30" customWidth="1"/>
